--- a/ModList.xlsx
+++ b/ModList.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Minecraft\Instances\KittenFirmeCraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6737B5A7-D1FD-4DD5-A6FC-6C62932C1446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22023DF-D06A-424B-A28F-0CD13D9D4FDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1020" windowWidth="15345" windowHeight="11385" activeTab="1" xr2:uid="{98805609-C4BC-4423-A66F-5F4290F69026}"/>
+    <workbookView xWindow="29640" yWindow="4230" windowWidth="15345" windowHeight="11385" activeTab="1" xr2:uid="{98805609-C4BC-4423-A66F-5F4290F69026}"/>
   </bookViews>
   <sheets>
     <sheet name="Modlist" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId2"/>
-    <sheet name="Bountiful Baubles" sheetId="5" r:id="rId3"/>
+    <sheet name="Bountiful Baubles Guide" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">Sheet4!$A$1:$B$30</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Bountiful Baubles Guide'!$A$1:$B$30</definedName>
     <definedName name="ExternalData_3" localSheetId="0" hidden="1">Modlist!$A$1:$F$117</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -51,13 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="537">
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="555">
   <si>
     <t>Advanced TFC Tech</t>
   </si>
@@ -1662,6 +1655,66 @@
   </si>
   <si>
     <t>1× each of Concotion                                             (Crafting)</t>
+  </si>
+  <si>
+    <t>Iron Ring + Cobalt Gear                                                (Welding)</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Ring of Oveclocking + Blue Steel Gear              (Welding)</t>
+  </si>
+  <si>
+    <t>Drops randomly from Cinnabar Ore</t>
+  </si>
+  <si>
+    <t>(Brewing)</t>
+  </si>
+  <si>
+    <t>Bauble</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Long Golden Rod + Spectral Silt                      (Welding)</t>
+  </si>
+  <si>
+    <t>Silver Plate + Recall Pot + Stick + Specrtral Silt                  (Crafting)</t>
+  </si>
+  <si>
+    <t>Magic Mirror + 4× Wormhole Pot + Spectral Silt                                                                                (Crafting)</t>
+  </si>
+  <si>
+    <t>Obsidian Shield + Ankh Charm + Spectral Silt                         (Crafting)</t>
+  </si>
+  <si>
+    <t>4× Leather + Spectral Silt</t>
+  </si>
+  <si>
+    <t>Long Golden Rod + Sin Pendant                     (Welding)</t>
+  </si>
+  <si>
+    <t>Steel Hoe + Sin Pendant                                     (Welding)</t>
+  </si>
+  <si>
+    <t>Steel Sword + Sin Pendant                                (Welding)</t>
+  </si>
+  <si>
+    <t>Rose Gold Ingot + Sin Pendant                           (Welding)</t>
+  </si>
+  <si>
+    <t>Ender Powder + Sin Pendant                             (Welding)</t>
+  </si>
+  <si>
+    <t>Sunglasses + Forbidden Fruit + Vitamins + Ring of Free action + Bezoar + 2× Spectral Silt</t>
+  </si>
+  <si>
+    <t>2× HV Capacitor + Spectral Silt + Cobalt Gear + Rose Gold Gear                                                                  (Crafting)</t>
+  </si>
+  <si>
+    <t>LV Capacitor + Spectral Silt + Cobalt Gear + Rose Gold Gear                                                                   (Crafting)</t>
   </si>
 </sst>
 </file>
@@ -1801,8 +1854,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1C1BC365-E532-485A-80A4-3A5AFA9547A2}" name="bountiful_baubles_list" displayName="bountiful_baubles_list" ref="A1:C30" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
   <autoFilter ref="A1:C30" xr:uid="{FF422DB6-6B64-433D-8B8B-4DA929A90D1F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7A7B8AAA-C3EF-469A-8180-04F96D146A3A}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{513D399A-3A02-4DA4-8734-1AF163C43B1F}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{7A7B8AAA-C3EF-469A-8180-04F96D146A3A}" uniqueName="1" name="Bauble" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{513D399A-3A02-4DA4-8734-1AF163C43B1F}" uniqueName="2" name="Description" queryTableFieldId="2" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{423651D4-3155-4F72-A9A9-5D9768932CF3}" uniqueName="3" name="Crafting" queryTableFieldId="3" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2126,22 +2179,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1" t="s">
         <v>468</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>469</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>470</v>
-      </c>
-      <c r="E1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2149,19 +2202,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2169,19 +2222,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2189,19 +2242,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2209,19 +2262,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2229,19 +2282,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2249,19 +2302,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2269,19 +2322,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2289,19 +2342,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2309,19 +2362,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2329,19 +2382,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2349,19 +2402,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>51</v>
       </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2369,19 +2422,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2389,19 +2442,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>60</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>61</v>
-      </c>
-      <c r="E14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2409,19 +2462,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
         <v>64</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>65</v>
       </c>
-      <c r="D15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" t="s">
-        <v>67</v>
-      </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2429,19 +2482,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
         <v>68</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>69</v>
       </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" t="s">
-        <v>71</v>
-      </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2449,19 +2502,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
         <v>73</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>74</v>
       </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>76</v>
-      </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2469,19 +2522,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
         <v>77</v>
       </c>
-      <c r="C18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" t="s">
-        <v>79</v>
-      </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2489,19 +2542,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
         <v>80</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>81</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>82</v>
-      </c>
-      <c r="E19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2509,19 +2562,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
         <v>85</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>86</v>
       </c>
-      <c r="D20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" t="s">
-        <v>88</v>
-      </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2529,19 +2582,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
         <v>89</v>
       </c>
-      <c r="C21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" t="s">
-        <v>91</v>
-      </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2549,19 +2602,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
         <v>92</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>93</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>94</v>
-      </c>
-      <c r="E22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2569,19 +2622,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
         <v>97</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>98</v>
       </c>
-      <c r="D23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" t="s">
-        <v>100</v>
-      </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2589,19 +2642,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
         <v>101</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>102</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>103</v>
-      </c>
-      <c r="E24" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2609,19 +2662,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" t="s">
         <v>106</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>107</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>108</v>
-      </c>
-      <c r="E25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2629,19 +2682,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
         <v>111</v>
       </c>
-      <c r="C26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" t="s">
-        <v>113</v>
-      </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2649,19 +2702,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" t="s">
-        <v>116</v>
-      </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2669,19 +2722,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" t="s">
         <v>117</v>
       </c>
-      <c r="C28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" t="s">
-        <v>119</v>
-      </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2689,19 +2742,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" t="s">
         <v>120</v>
       </c>
-      <c r="C29" t="s">
+      <c r="F29" t="s">
         <v>121</v>
-      </c>
-      <c r="D29" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2709,19 +2762,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2729,19 +2782,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" t="s">
         <v>126</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>127</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>128</v>
-      </c>
-      <c r="E31" t="s">
-        <v>129</v>
-      </c>
-      <c r="F31" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2749,19 +2802,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" t="s">
         <v>131</v>
       </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" t="s">
-        <v>133</v>
-      </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2769,19 +2822,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" t="s">
         <v>134</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>135</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>136</v>
-      </c>
-      <c r="E33" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2789,19 +2842,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" t="s">
         <v>139</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>140</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>141</v>
-      </c>
-      <c r="E34" t="s">
-        <v>142</v>
-      </c>
-      <c r="F34" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2809,19 +2862,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" t="s">
         <v>144</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
         <v>145</v>
-      </c>
-      <c r="D35" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2829,19 +2882,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" t="s">
         <v>148</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>149</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>150</v>
-      </c>
-      <c r="E36" t="s">
-        <v>151</v>
-      </c>
-      <c r="F36" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2849,19 +2902,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" t="s">
         <v>153</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>154</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>155</v>
-      </c>
-      <c r="E37" t="s">
-        <v>156</v>
-      </c>
-      <c r="F37" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2869,19 +2922,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" t="s">
         <v>158</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>159</v>
       </c>
-      <c r="D38" t="s">
-        <v>160</v>
-      </c>
-      <c r="E38" t="s">
-        <v>161</v>
-      </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2889,19 +2942,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2909,19 +2962,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2929,19 +2982,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" t="s">
         <v>165</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>166</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>167</v>
-      </c>
-      <c r="E41" t="s">
-        <v>168</v>
-      </c>
-      <c r="F41" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2949,19 +3002,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" t="s">
         <v>170</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>171</v>
       </c>
-      <c r="D42" t="s">
-        <v>172</v>
-      </c>
-      <c r="E42" t="s">
-        <v>173</v>
-      </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2969,19 +3022,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" t="s">
         <v>174</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>175</v>
       </c>
-      <c r="D43" t="s">
-        <v>176</v>
-      </c>
-      <c r="E43" t="s">
-        <v>177</v>
-      </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2989,19 +3042,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3009,19 +3062,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" t="s">
         <v>180</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>181</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>182</v>
-      </c>
-      <c r="E45" t="s">
-        <v>183</v>
-      </c>
-      <c r="F45" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3029,19 +3082,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3049,19 +3102,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" t="s">
         <v>187</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>188</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>189</v>
-      </c>
-      <c r="E47" t="s">
-        <v>190</v>
-      </c>
-      <c r="F47" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3069,19 +3122,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" t="s">
         <v>192</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>193</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
         <v>194</v>
-      </c>
-      <c r="E48" t="s">
-        <v>195</v>
-      </c>
-      <c r="F48" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3089,19 +3142,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" t="s">
         <v>197</v>
       </c>
-      <c r="C49" t="s">
-        <v>198</v>
-      </c>
-      <c r="D49" t="s">
-        <v>199</v>
-      </c>
       <c r="E49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3109,19 +3162,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C50" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" t="s">
         <v>200</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" t="s">
         <v>201</v>
-      </c>
-      <c r="D50" t="s">
-        <v>202</v>
-      </c>
-      <c r="E50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3129,19 +3182,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" t="s">
         <v>204</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
         <v>205</v>
       </c>
-      <c r="D51" t="s">
+      <c r="F51" t="s">
         <v>206</v>
-      </c>
-      <c r="E51" t="s">
-        <v>207</v>
-      </c>
-      <c r="F51" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3149,19 +3202,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" t="s">
+        <v>208</v>
+      </c>
+      <c r="D52" t="s">
         <v>209</v>
       </c>
-      <c r="C52" t="s">
-        <v>210</v>
-      </c>
-      <c r="D52" t="s">
-        <v>211</v>
-      </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -3169,19 +3222,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>210</v>
+      </c>
+      <c r="C53" t="s">
+        <v>211</v>
+      </c>
+      <c r="D53" t="s">
         <v>212</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>213</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>214</v>
-      </c>
-      <c r="E53" t="s">
-        <v>215</v>
-      </c>
-      <c r="F53" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3189,19 +3242,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>215</v>
+      </c>
+      <c r="C54" t="s">
+        <v>216</v>
+      </c>
+      <c r="D54" t="s">
         <v>217</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>218</v>
       </c>
-      <c r="D54" t="s">
+      <c r="F54" t="s">
         <v>219</v>
-      </c>
-      <c r="E54" t="s">
-        <v>220</v>
-      </c>
-      <c r="F54" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3209,19 +3262,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" t="s">
+        <v>454</v>
+      </c>
+      <c r="D55" t="s">
+        <v>455</v>
+      </c>
+      <c r="E55" t="s">
+        <v>221</v>
+      </c>
+      <c r="F55" t="s">
         <v>222</v>
-      </c>
-      <c r="C55" t="s">
-        <v>456</v>
-      </c>
-      <c r="D55" t="s">
-        <v>457</v>
-      </c>
-      <c r="E55" t="s">
-        <v>223</v>
-      </c>
-      <c r="F55" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -3229,19 +3282,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>223</v>
+      </c>
+      <c r="C56" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" t="s">
+        <v>224</v>
+      </c>
+      <c r="E56" t="s">
         <v>225</v>
       </c>
-      <c r="C56" t="s">
-        <v>193</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>226</v>
-      </c>
-      <c r="E56" t="s">
-        <v>227</v>
-      </c>
-      <c r="F56" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3249,19 +3302,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>227</v>
+      </c>
+      <c r="C57" t="s">
+        <v>228</v>
+      </c>
+      <c r="D57" t="s">
         <v>229</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
         <v>230</v>
       </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
         <v>231</v>
-      </c>
-      <c r="E57" t="s">
-        <v>232</v>
-      </c>
-      <c r="F57" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -3269,19 +3322,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C58" t="s">
+        <v>233</v>
+      </c>
+      <c r="D58" t="s">
         <v>234</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
         <v>235</v>
       </c>
-      <c r="D58" t="s">
-        <v>236</v>
-      </c>
-      <c r="E58" t="s">
-        <v>237</v>
-      </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -3289,19 +3342,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>236</v>
+      </c>
+      <c r="C59" t="s">
+        <v>237</v>
+      </c>
+      <c r="D59" t="s">
         <v>238</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>239</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
         <v>240</v>
-      </c>
-      <c r="E59" t="s">
-        <v>241</v>
-      </c>
-      <c r="F59" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3309,19 +3362,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" t="s">
         <v>243</v>
       </c>
-      <c r="C60" t="s">
+      <c r="E60" t="s">
         <v>244</v>
       </c>
-      <c r="D60" t="s">
-        <v>245</v>
-      </c>
-      <c r="E60" t="s">
-        <v>246</v>
-      </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -3329,19 +3382,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61" t="s">
+        <v>246</v>
+      </c>
+      <c r="D61" t="s">
         <v>247</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E61" t="s">
         <v>248</v>
       </c>
-      <c r="D61" t="s">
-        <v>249</v>
-      </c>
-      <c r="E61" t="s">
-        <v>250</v>
-      </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -3349,19 +3402,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>249</v>
+      </c>
+      <c r="C62" t="s">
+        <v>250</v>
+      </c>
+      <c r="D62" t="s">
         <v>251</v>
       </c>
-      <c r="C62" t="s">
-        <v>252</v>
-      </c>
-      <c r="D62" t="s">
-        <v>253</v>
-      </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3369,19 +3422,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>252</v>
+      </c>
+      <c r="C63" t="s">
+        <v>253</v>
+      </c>
+      <c r="D63" t="s">
         <v>254</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E63" t="s">
         <v>255</v>
       </c>
-      <c r="D63" t="s">
-        <v>256</v>
-      </c>
-      <c r="E63" t="s">
-        <v>257</v>
-      </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3389,19 +3442,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>256</v>
+      </c>
+      <c r="C64" t="s">
+        <v>257</v>
+      </c>
+      <c r="D64" t="s">
         <v>258</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
         <v>259</v>
-      </c>
-      <c r="D64" t="s">
-        <v>260</v>
-      </c>
-      <c r="E64" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -3409,19 +3462,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>260</v>
+      </c>
+      <c r="C65" t="s">
+        <v>261</v>
+      </c>
+      <c r="D65" t="s">
         <v>262</v>
       </c>
-      <c r="C65" t="s">
+      <c r="E65" t="s">
         <v>263</v>
       </c>
-      <c r="D65" t="s">
-        <v>264</v>
-      </c>
-      <c r="E65" t="s">
-        <v>265</v>
-      </c>
       <c r="F65" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -3429,19 +3482,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C66" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -3449,19 +3502,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>266</v>
+      </c>
+      <c r="C67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D67" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
         <v>268</v>
-      </c>
-      <c r="C67" t="s">
-        <v>269</v>
-      </c>
-      <c r="D67" t="s">
-        <v>61</v>
-      </c>
-      <c r="E67" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -3469,19 +3522,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>269</v>
+      </c>
+      <c r="C68" t="s">
+        <v>270</v>
+      </c>
+      <c r="D68" t="s">
+        <v>187</v>
+      </c>
+      <c r="E68" t="s">
         <v>271</v>
       </c>
-      <c r="C68" t="s">
+      <c r="F68" t="s">
         <v>272</v>
-      </c>
-      <c r="D68" t="s">
-        <v>189</v>
-      </c>
-      <c r="E68" t="s">
-        <v>273</v>
-      </c>
-      <c r="F68" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3489,19 +3542,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>273</v>
+      </c>
+      <c r="C69" t="s">
+        <v>274</v>
+      </c>
+      <c r="D69" t="s">
         <v>275</v>
       </c>
-      <c r="C69" t="s">
+      <c r="E69" t="s">
         <v>276</v>
       </c>
-      <c r="D69" t="s">
+      <c r="F69" t="s">
         <v>277</v>
-      </c>
-      <c r="E69" t="s">
-        <v>278</v>
-      </c>
-      <c r="F69" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3509,19 +3562,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>278</v>
+      </c>
+      <c r="C70" t="s">
+        <v>279</v>
+      </c>
+      <c r="D70" t="s">
         <v>280</v>
       </c>
-      <c r="C70" t="s">
+      <c r="E70" t="s">
+        <v>98</v>
+      </c>
+      <c r="F70" t="s">
         <v>281</v>
-      </c>
-      <c r="D70" t="s">
-        <v>282</v>
-      </c>
-      <c r="E70" t="s">
-        <v>100</v>
-      </c>
-      <c r="F70" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3529,19 +3582,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>282</v>
+      </c>
+      <c r="C71" t="s">
+        <v>283</v>
+      </c>
+      <c r="D71" t="s">
         <v>284</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
         <v>285</v>
       </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
         <v>286</v>
-      </c>
-      <c r="E71" t="s">
-        <v>287</v>
-      </c>
-      <c r="F71" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3549,19 +3602,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>287</v>
+      </c>
+      <c r="C72" t="s">
+        <v>288</v>
+      </c>
+      <c r="D72" t="s">
         <v>289</v>
       </c>
-      <c r="C72" t="s">
+      <c r="E72" t="s">
         <v>290</v>
       </c>
-      <c r="D72" t="s">
-        <v>291</v>
-      </c>
-      <c r="E72" t="s">
-        <v>292</v>
-      </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3569,19 +3622,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C73" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D73" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E73" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3589,19 +3642,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>292</v>
+      </c>
+      <c r="C74" t="s">
+        <v>293</v>
+      </c>
+      <c r="D74" t="s">
         <v>294</v>
       </c>
-      <c r="C74" t="s">
+      <c r="E74" t="s">
         <v>295</v>
       </c>
-      <c r="D74" t="s">
-        <v>296</v>
-      </c>
-      <c r="E74" t="s">
-        <v>297</v>
-      </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3609,19 +3662,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>296</v>
+      </c>
+      <c r="C75" t="s">
+        <v>297</v>
+      </c>
+      <c r="D75" t="s">
         <v>298</v>
       </c>
-      <c r="C75" t="s">
+      <c r="E75" t="s">
         <v>299</v>
       </c>
-      <c r="D75" t="s">
+      <c r="F75" t="s">
         <v>300</v>
-      </c>
-      <c r="E75" t="s">
-        <v>301</v>
-      </c>
-      <c r="F75" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3629,19 +3682,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>301</v>
+      </c>
+      <c r="C76" t="s">
+        <v>302</v>
+      </c>
+      <c r="D76" t="s">
         <v>303</v>
       </c>
-      <c r="C76" t="s">
+      <c r="E76" t="s">
         <v>304</v>
       </c>
-      <c r="D76" t="s">
+      <c r="F76" t="s">
         <v>305</v>
-      </c>
-      <c r="E76" t="s">
-        <v>306</v>
-      </c>
-      <c r="F76" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3649,19 +3702,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>306</v>
+      </c>
+      <c r="C77" t="s">
+        <v>307</v>
+      </c>
+      <c r="D77" t="s">
         <v>308</v>
       </c>
-      <c r="C77" t="s">
-        <v>309</v>
-      </c>
-      <c r="D77" t="s">
-        <v>310</v>
-      </c>
       <c r="E77" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3669,19 +3722,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>309</v>
+      </c>
+      <c r="C78" t="s">
+        <v>310</v>
+      </c>
+      <c r="D78" t="s">
         <v>311</v>
       </c>
-      <c r="C78" t="s">
+      <c r="E78" t="s">
         <v>312</v>
       </c>
-      <c r="D78" t="s">
-        <v>313</v>
-      </c>
-      <c r="E78" t="s">
-        <v>314</v>
-      </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3689,19 +3742,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>313</v>
+      </c>
+      <c r="C79" t="s">
+        <v>314</v>
+      </c>
+      <c r="D79" t="s">
         <v>315</v>
       </c>
-      <c r="C79" t="s">
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
         <v>316</v>
-      </c>
-      <c r="D79" t="s">
-        <v>317</v>
-      </c>
-      <c r="E79" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3709,19 +3762,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>317</v>
+      </c>
+      <c r="C80" t="s">
+        <v>318</v>
+      </c>
+      <c r="D80" t="s">
         <v>319</v>
       </c>
-      <c r="C80" t="s">
+      <c r="E80" t="s">
         <v>320</v>
       </c>
-      <c r="D80" t="s">
-        <v>321</v>
-      </c>
-      <c r="E80" t="s">
-        <v>322</v>
-      </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3729,19 +3782,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>321</v>
+      </c>
+      <c r="C81" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81" t="s">
+        <v>322</v>
+      </c>
+      <c r="E81" t="s">
         <v>323</v>
       </c>
-      <c r="C81" t="s">
-        <v>72</v>
-      </c>
-      <c r="D81" t="s">
-        <v>324</v>
-      </c>
-      <c r="E81" t="s">
-        <v>325</v>
-      </c>
       <c r="F81" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3749,19 +3802,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>324</v>
+      </c>
+      <c r="C82" t="s">
+        <v>325</v>
+      </c>
+      <c r="D82" t="s">
         <v>326</v>
       </c>
-      <c r="C82" t="s">
+      <c r="E82" t="s">
         <v>327</v>
       </c>
-      <c r="D82" t="s">
+      <c r="F82" t="s">
         <v>328</v>
-      </c>
-      <c r="E82" t="s">
-        <v>329</v>
-      </c>
-      <c r="F82" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3769,19 +3822,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C83" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D83" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E83" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3789,19 +3842,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>456</v>
+      </c>
+      <c r="C84" t="s">
+        <v>457</v>
+      </c>
+      <c r="D84" t="s">
         <v>458</v>
       </c>
-      <c r="C84" t="s">
+      <c r="E84" t="s">
         <v>459</v>
       </c>
-      <c r="D84" t="s">
+      <c r="F84" t="s">
         <v>460</v>
-      </c>
-      <c r="E84" t="s">
-        <v>461</v>
-      </c>
-      <c r="F84" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3809,19 +3862,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>331</v>
+      </c>
+      <c r="C85" t="s">
+        <v>332</v>
+      </c>
+      <c r="D85" t="s">
         <v>333</v>
       </c>
-      <c r="C85" t="s">
+      <c r="E85" t="s">
         <v>334</v>
       </c>
-      <c r="D85" t="s">
-        <v>335</v>
-      </c>
-      <c r="E85" t="s">
-        <v>336</v>
-      </c>
       <c r="F85" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3829,19 +3882,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>335</v>
+      </c>
+      <c r="C86" t="s">
+        <v>336</v>
+      </c>
+      <c r="D86" t="s">
         <v>337</v>
       </c>
-      <c r="C86" t="s">
+      <c r="E86" t="s">
         <v>338</v>
       </c>
-      <c r="D86" t="s">
+      <c r="F86" t="s">
         <v>339</v>
-      </c>
-      <c r="E86" t="s">
-        <v>340</v>
-      </c>
-      <c r="F86" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3849,19 +3902,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>340</v>
+      </c>
+      <c r="C87" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87" t="s">
+        <v>341</v>
+      </c>
+      <c r="E87" t="s">
         <v>342</v>
       </c>
-      <c r="C87" t="s">
-        <v>125</v>
-      </c>
-      <c r="D87" t="s">
-        <v>343</v>
-      </c>
-      <c r="E87" t="s">
-        <v>344</v>
-      </c>
       <c r="F87" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3869,19 +3922,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>343</v>
+      </c>
+      <c r="C88" t="s">
+        <v>344</v>
+      </c>
+      <c r="D88" t="s">
         <v>345</v>
       </c>
-      <c r="C88" t="s">
-        <v>346</v>
-      </c>
-      <c r="D88" t="s">
-        <v>347</v>
-      </c>
       <c r="E88" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F88" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3889,19 +3942,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>346</v>
+      </c>
+      <c r="C89" t="s">
+        <v>347</v>
+      </c>
+      <c r="D89" t="s">
         <v>348</v>
       </c>
-      <c r="C89" t="s">
-        <v>349</v>
-      </c>
-      <c r="D89" t="s">
-        <v>350</v>
-      </c>
       <c r="E89" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3909,19 +3962,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>349</v>
+      </c>
+      <c r="C90" t="s">
+        <v>350</v>
+      </c>
+      <c r="D90" t="s">
         <v>351</v>
       </c>
-      <c r="C90" t="s">
-        <v>352</v>
-      </c>
-      <c r="D90" t="s">
-        <v>353</v>
-      </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3929,19 +3982,19 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>352</v>
+      </c>
+      <c r="C91" t="s">
+        <v>353</v>
+      </c>
+      <c r="D91" t="s">
         <v>354</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
         <v>355</v>
       </c>
-      <c r="D91" t="s">
+      <c r="F91" t="s">
         <v>356</v>
-      </c>
-      <c r="E91" t="s">
-        <v>357</v>
-      </c>
-      <c r="F91" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3949,19 +4002,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>357</v>
+      </c>
+      <c r="C92" t="s">
+        <v>358</v>
+      </c>
+      <c r="D92" t="s">
         <v>359</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E92" t="s">
         <v>360</v>
       </c>
-      <c r="D92" t="s">
+      <c r="F92" t="s">
         <v>361</v>
-      </c>
-      <c r="E92" t="s">
-        <v>362</v>
-      </c>
-      <c r="F92" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3969,19 +4022,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>362</v>
+      </c>
+      <c r="C93" t="s">
+        <v>363</v>
+      </c>
+      <c r="D93" t="s">
         <v>364</v>
       </c>
-      <c r="C93" t="s">
+      <c r="E93" t="s">
         <v>365</v>
       </c>
-      <c r="D93" t="s">
-        <v>366</v>
-      </c>
-      <c r="E93" t="s">
-        <v>367</v>
-      </c>
       <c r="F93" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3989,19 +4042,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>366</v>
+      </c>
+      <c r="C94" t="s">
+        <v>367</v>
+      </c>
+      <c r="D94" t="s">
         <v>368</v>
       </c>
-      <c r="C94" t="s">
+      <c r="E94" t="s">
         <v>369</v>
       </c>
-      <c r="D94" t="s">
-        <v>370</v>
-      </c>
-      <c r="E94" t="s">
-        <v>371</v>
-      </c>
       <c r="F94" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -4009,19 +4062,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>370</v>
+      </c>
+      <c r="C95" t="s">
+        <v>371</v>
+      </c>
+      <c r="D95" t="s">
         <v>372</v>
       </c>
-      <c r="C95" t="s">
+      <c r="E95" t="s">
         <v>373</v>
       </c>
-      <c r="D95" t="s">
-        <v>374</v>
-      </c>
-      <c r="E95" t="s">
-        <v>375</v>
-      </c>
       <c r="F95" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -4029,19 +4082,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>374</v>
+      </c>
+      <c r="C96" t="s">
+        <v>375</v>
+      </c>
+      <c r="D96" t="s">
         <v>376</v>
       </c>
-      <c r="C96" t="s">
-        <v>377</v>
-      </c>
-      <c r="D96" t="s">
-        <v>378</v>
-      </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -4049,19 +4102,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>377</v>
+      </c>
+      <c r="C97" t="s">
+        <v>461</v>
+      </c>
+      <c r="D97" t="s">
+        <v>462</v>
+      </c>
+      <c r="E97" t="s">
+        <v>378</v>
+      </c>
+      <c r="F97" t="s">
         <v>379</v>
-      </c>
-      <c r="C97" t="s">
-        <v>463</v>
-      </c>
-      <c r="D97" t="s">
-        <v>464</v>
-      </c>
-      <c r="E97" t="s">
-        <v>380</v>
-      </c>
-      <c r="F97" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -4069,19 +4122,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C98" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D98" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E98" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -4089,19 +4142,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>382</v>
+      </c>
+      <c r="C99" t="s">
+        <v>31</v>
+      </c>
+      <c r="D99" t="s">
+        <v>383</v>
+      </c>
+      <c r="E99" t="s">
         <v>384</v>
       </c>
-      <c r="C99" t="s">
-        <v>33</v>
-      </c>
-      <c r="D99" t="s">
-        <v>385</v>
-      </c>
-      <c r="E99" t="s">
-        <v>386</v>
-      </c>
       <c r="F99" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -4109,19 +4162,19 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C100" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D100" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E100" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -4129,19 +4182,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>386</v>
+      </c>
+      <c r="C101" t="s">
+        <v>387</v>
+      </c>
+      <c r="D101" t="s">
         <v>388</v>
       </c>
-      <c r="C101" t="s">
+      <c r="E101" t="s">
         <v>389</v>
       </c>
-      <c r="D101" t="s">
-        <v>390</v>
-      </c>
-      <c r="E101" t="s">
-        <v>391</v>
-      </c>
       <c r="F101" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -4149,19 +4202,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>390</v>
+      </c>
+      <c r="C102" t="s">
+        <v>391</v>
+      </c>
+      <c r="D102" t="s">
         <v>392</v>
       </c>
-      <c r="C102" t="s">
+      <c r="E102" t="s">
         <v>393</v>
       </c>
-      <c r="D102" t="s">
+      <c r="F102" t="s">
         <v>394</v>
-      </c>
-      <c r="E102" t="s">
-        <v>395</v>
-      </c>
-      <c r="F102" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -4169,19 +4222,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C103" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D103" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E103" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -4189,19 +4242,19 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D104" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -4209,19 +4262,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>399</v>
+      </c>
+      <c r="C105" t="s">
+        <v>400</v>
+      </c>
+      <c r="D105" t="s">
         <v>401</v>
       </c>
-      <c r="C105" t="s">
+      <c r="E105" t="s">
         <v>402</v>
       </c>
-      <c r="D105" t="s">
+      <c r="F105" t="s">
         <v>403</v>
-      </c>
-      <c r="E105" t="s">
-        <v>404</v>
-      </c>
-      <c r="F105" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -4229,19 +4282,19 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>404</v>
+      </c>
+      <c r="C106" t="s">
+        <v>405</v>
+      </c>
+      <c r="D106" t="s">
         <v>406</v>
       </c>
-      <c r="C106" t="s">
-        <v>407</v>
-      </c>
-      <c r="D106" t="s">
-        <v>408</v>
-      </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -4249,19 +4302,19 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>407</v>
+      </c>
+      <c r="C107" t="s">
+        <v>408</v>
+      </c>
+      <c r="D107" t="s">
         <v>409</v>
       </c>
-      <c r="C107" t="s">
+      <c r="E107" t="s">
         <v>410</v>
       </c>
-      <c r="D107" t="s">
-        <v>411</v>
-      </c>
-      <c r="E107" t="s">
-        <v>412</v>
-      </c>
       <c r="F107" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4269,19 +4322,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>411</v>
+      </c>
+      <c r="C108" t="s">
+        <v>412</v>
+      </c>
+      <c r="D108" t="s">
         <v>413</v>
       </c>
-      <c r="C108" t="s">
+      <c r="E108" t="s">
         <v>414</v>
       </c>
-      <c r="D108" t="s">
+      <c r="F108" t="s">
         <v>415</v>
-      </c>
-      <c r="E108" t="s">
-        <v>416</v>
-      </c>
-      <c r="F108" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -4289,19 +4342,19 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>416</v>
+      </c>
+      <c r="C109" t="s">
+        <v>417</v>
+      </c>
+      <c r="D109" t="s">
         <v>418</v>
       </c>
-      <c r="C109" t="s">
+      <c r="E109" t="s">
         <v>419</v>
       </c>
-      <c r="D109" t="s">
+      <c r="F109" t="s">
         <v>420</v>
-      </c>
-      <c r="E109" t="s">
-        <v>421</v>
-      </c>
-      <c r="F109" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4309,19 +4362,19 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>421</v>
+      </c>
+      <c r="C110" t="s">
+        <v>422</v>
+      </c>
+      <c r="D110" t="s">
         <v>423</v>
       </c>
-      <c r="C110" t="s">
-        <v>424</v>
-      </c>
-      <c r="D110" t="s">
-        <v>425</v>
-      </c>
       <c r="E110" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F110" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -4329,19 +4382,19 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>424</v>
+      </c>
+      <c r="C111" t="s">
+        <v>425</v>
+      </c>
+      <c r="D111" t="s">
         <v>426</v>
       </c>
-      <c r="C111" t="s">
-        <v>427</v>
-      </c>
-      <c r="D111" t="s">
-        <v>428</v>
-      </c>
       <c r="E111" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F111" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -4349,19 +4402,19 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>427</v>
+      </c>
+      <c r="C112" t="s">
+        <v>428</v>
+      </c>
+      <c r="D112" t="s">
         <v>429</v>
       </c>
-      <c r="C112" t="s">
+      <c r="E112" t="s">
         <v>430</v>
       </c>
-      <c r="D112" t="s">
-        <v>431</v>
-      </c>
-      <c r="E112" t="s">
-        <v>432</v>
-      </c>
       <c r="F112" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -4369,19 +4422,19 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>431</v>
+      </c>
+      <c r="C113" t="s">
+        <v>432</v>
+      </c>
+      <c r="D113" t="s">
         <v>433</v>
       </c>
-      <c r="C113" t="s">
+      <c r="E113" t="s">
+        <v>419</v>
+      </c>
+      <c r="F113" t="s">
         <v>434</v>
-      </c>
-      <c r="D113" t="s">
-        <v>435</v>
-      </c>
-      <c r="E113" t="s">
-        <v>421</v>
-      </c>
-      <c r="F113" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -4389,19 +4442,19 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>435</v>
+      </c>
+      <c r="C114" t="s">
+        <v>436</v>
+      </c>
+      <c r="D114" t="s">
         <v>437</v>
       </c>
-      <c r="C114" t="s">
+      <c r="E114" t="s">
         <v>438</v>
       </c>
-      <c r="D114" t="s">
+      <c r="F114" t="s">
         <v>439</v>
-      </c>
-      <c r="E114" t="s">
-        <v>440</v>
-      </c>
-      <c r="F114" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -4409,19 +4462,19 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>440</v>
+      </c>
+      <c r="C115" t="s">
+        <v>441</v>
+      </c>
+      <c r="D115" t="s">
         <v>442</v>
       </c>
-      <c r="C115" t="s">
+      <c r="E115" t="s">
         <v>443</v>
       </c>
-      <c r="D115" t="s">
+      <c r="F115" t="s">
         <v>444</v>
-      </c>
-      <c r="E115" t="s">
-        <v>445</v>
-      </c>
-      <c r="F115" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -4429,19 +4482,19 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>445</v>
+      </c>
+      <c r="C116" t="s">
+        <v>446</v>
+      </c>
+      <c r="D116" t="s">
         <v>447</v>
       </c>
-      <c r="C116" t="s">
+      <c r="E116" t="s">
         <v>448</v>
       </c>
-      <c r="D116" t="s">
+      <c r="F116" t="s">
         <v>449</v>
-      </c>
-      <c r="E116" t="s">
-        <v>450</v>
-      </c>
-      <c r="F116" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -4449,19 +4502,19 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>450</v>
+      </c>
+      <c r="C117" t="s">
+        <v>451</v>
+      </c>
+      <c r="D117" t="s">
         <v>452</v>
       </c>
-      <c r="C117" t="s">
-        <v>453</v>
-      </c>
-      <c r="D117" t="s">
-        <v>454</v>
-      </c>
       <c r="E117" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4477,7 +4530,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4489,263 +4542,332 @@
   <sheetData>
     <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>541</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="C18" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="C19" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="C21" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="C22" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="C23" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="C24" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="C25" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="C26" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="C27" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="C28" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="C29" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>529</v>
+      <c r="C30" s="3" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -4753,19 +4875,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF4AD62-9D4D-422B-9523-F3E1021AB3D2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
